--- a/Task Assignment.xlsx
+++ b/Task Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cybersoft\PhamQuangHuy_DATH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235F5B33-5B29-4470-98DD-B64F15D6E8A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123FCBEB-78F8-4E71-8752-A77837AF5341}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27885" windowHeight="16440" xr2:uid="{A6B17EFB-AE12-44E4-BD20-5C7CB5DB6105}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Task Name</t>
   </si>
@@ -76,13 +76,28 @@
   </si>
   <si>
     <t>Create project(Get image, get variables)</t>
+  </si>
+  <si>
+    <t>AirBag</t>
+  </si>
+  <si>
+    <t>Disclosures</t>
+  </si>
+  <si>
+    <t>Residents</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Hữu Thắng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +111,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -124,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -133,6 +153,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -450,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665AC643-A008-4D71-96A3-E1B1E1D51C35}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,6 +541,18 @@
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F2" s="2">
+        <v>44245</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44245</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -535,7 +570,18 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>44252</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44252</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -553,7 +599,18 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>44252</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44252</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -571,7 +628,18 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>44252</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44252</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -589,7 +657,18 @@
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>44252</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44252</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -607,7 +686,18 @@
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>44252</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44252</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -625,9 +715,146 @@
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>44252</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44252</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44252</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44250</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44254</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44254</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44252</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44252</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44254</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44254</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44252</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44252</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44254</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44254</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44253</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44255</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44255</v>
+      </c>
+      <c r="G12" s="2">
+        <v>44255</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>